--- a/adaBoost/ttt.xlsx
+++ b/adaBoost/ttt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\adaBoost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A105288C-158F-40F2-8812-7263936EE0E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592DE2E4-1071-4900-83AC-0785F27A57CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{574A6622-9CCF-4825-8D01-E57950C239F4}"/>
   </bookViews>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF3B040-9F97-4E6A-9EB2-2AFBE909135C}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
